--- a/django_project/geosight/harvester/tests/test_harvesters/fixtures/excel_long_test.xlsx
+++ b/django_project/geosight/harvester/tests/test_harvesters/fixtures/excel_long_test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
   <si>
     <t xml:space="preserve">geom_code</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t xml:space="preserve">IND2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND3</t>
   </si>
 </sst>
 </file>
@@ -123,7 +126,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -134,6 +137,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -153,13 +160,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.39"/>
@@ -233,7 +240,7 @@
         <v>40179</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -247,7 +254,7 @@
         <v>40179</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -261,7 +268,49 @@
         <v>40179</v>
       </c>
       <c r="D7" s="0" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>40179</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>40179</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>40179</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
